--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>用例标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,15 +74,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预期1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期3</t>
+    <t>1.期望1
+2.期望2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +445,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -520,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
@@ -537,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>用例标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.a&gt;send_keys
-2.b&gt;click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>case_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,8 +69,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.期望1
-2.期望2</t>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、17711794059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、a&gt;send_keys
+2、b&gt;click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、a&gt;send_keys
+2、b&gt;click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、期望1
+2、期望2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、期望1
+2、期望2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、期望1
+2、期望2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,6 +106,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,10 +471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -454,12 +483,13 @@
     <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="26.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.26953125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,69 +502,81 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>